--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>68.50681433333334</v>
+        <v>0.2115286666666667</v>
       </c>
       <c r="H2">
-        <v>205.520443</v>
+        <v>0.634586</v>
       </c>
       <c r="I2">
-        <v>0.9663865053086182</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="J2">
-        <v>0.9663865053086185</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.448495</v>
+        <v>0.2807486666666667</v>
       </c>
       <c r="N2">
-        <v>1.345485</v>
+        <v>0.8422460000000001</v>
       </c>
       <c r="O2">
-        <v>0.05033609585745587</v>
+        <v>0.03211396410631209</v>
       </c>
       <c r="P2">
-        <v>0.05033609585745586</v>
+        <v>0.03211396410631208</v>
       </c>
       <c r="Q2">
-        <v>30.72496369442834</v>
+        <v>0.05938639112844445</v>
       </c>
       <c r="R2">
-        <v>276.524673249855</v>
+        <v>0.534477520156</v>
       </c>
       <c r="S2">
-        <v>0.04864412376656639</v>
+        <v>0.002618363248836286</v>
       </c>
       <c r="T2">
-        <v>0.0486441237665664</v>
+        <v>0.002618363248836286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>68.50681433333334</v>
+        <v>0.2115286666666667</v>
       </c>
       <c r="H3">
-        <v>205.520443</v>
+        <v>0.634586</v>
       </c>
       <c r="I3">
-        <v>0.9663865053086182</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="J3">
-        <v>0.9663865053086185</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.834996</v>
       </c>
       <c r="O3">
-        <v>0.06864924882406573</v>
+        <v>0.06996648921957034</v>
       </c>
       <c r="P3">
-        <v>0.06864924882406571</v>
+        <v>0.06996648921957033</v>
       </c>
       <c r="Q3">
-        <v>41.90324342480311</v>
+        <v>0.1293847524062222</v>
       </c>
       <c r="R3">
-        <v>377.129190823228</v>
+        <v>1.164462771656</v>
       </c>
       <c r="S3">
-        <v>0.06634170766315065</v>
+        <v>0.0057046113465206</v>
       </c>
       <c r="T3">
-        <v>0.06634170766315065</v>
+        <v>0.005704611346520599</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>68.50681433333334</v>
+        <v>0.2115286666666667</v>
       </c>
       <c r="H4">
-        <v>205.520443</v>
+        <v>0.634586</v>
       </c>
       <c r="I4">
-        <v>0.9663865053086182</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="J4">
-        <v>0.9663865053086185</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>23.549542</v>
       </c>
       <c r="O4">
-        <v>0.8810146553184784</v>
+        <v>0.8979195466741177</v>
       </c>
       <c r="P4">
-        <v>0.8810146553184784</v>
+        <v>0.8979195466741176</v>
       </c>
       <c r="Q4">
-        <v>537.7680338096785</v>
+        <v>1.660467739956889</v>
       </c>
       <c r="R4">
-        <v>4839.912304287106</v>
+        <v>14.944209659612</v>
       </c>
       <c r="S4">
-        <v>0.8514006738789013</v>
+        <v>0.07321050536271656</v>
       </c>
       <c r="T4">
-        <v>0.8514006738789014</v>
+        <v>0.07321050536271656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.685929</v>
       </c>
       <c r="I5">
-        <v>0.01733176511849816</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="J5">
-        <v>0.01733176511849817</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.448495</v>
+        <v>0.2807486666666667</v>
       </c>
       <c r="N5">
-        <v>1.345485</v>
+        <v>0.8422460000000001</v>
       </c>
       <c r="O5">
-        <v>0.05033609585745587</v>
+        <v>0.03211396410631209</v>
       </c>
       <c r="P5">
-        <v>0.05033609585745586</v>
+        <v>0.03211396410631208</v>
       </c>
       <c r="Q5">
-        <v>0.551040242285</v>
+        <v>0.3449398840593333</v>
       </c>
       <c r="R5">
-        <v>4.959362180565</v>
+        <v>3.104458956534</v>
       </c>
       <c r="S5">
-        <v>0.0008724133903836335</v>
+        <v>0.01520849976428709</v>
       </c>
       <c r="T5">
-        <v>0.0008724133903836335</v>
+        <v>0.01520849976428708</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.685929</v>
       </c>
       <c r="I6">
-        <v>0.01733176511849816</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="J6">
-        <v>0.01733176511849817</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.834996</v>
       </c>
       <c r="O6">
-        <v>0.06864924882406573</v>
+        <v>0.06996648921957034</v>
       </c>
       <c r="P6">
-        <v>0.06864924882406571</v>
+        <v>0.06996648921957033</v>
       </c>
       <c r="Q6">
         <v>0.7515183301426666</v>
@@ -818,10 +818,10 @@
         <v>6.763664971283999</v>
       </c>
       <c r="S6">
-        <v>0.001189812656180043</v>
+        <v>0.0331346616469152</v>
       </c>
       <c r="T6">
-        <v>0.001189812656180043</v>
+        <v>0.03313466164691519</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.685929</v>
       </c>
       <c r="I7">
-        <v>0.01733176511849816</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="J7">
-        <v>0.01733176511849817</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>23.549542</v>
       </c>
       <c r="O7">
-        <v>0.8810146553184784</v>
+        <v>0.8979195466741177</v>
       </c>
       <c r="P7">
-        <v>0.8810146553184784</v>
+        <v>0.8979195466741176</v>
       </c>
       <c r="Q7">
         <v>9.644659977168667</v>
@@ -880,10 +880,10 @@
         <v>86.80193979451801</v>
       </c>
       <c r="S7">
-        <v>0.01526953907193448</v>
+        <v>0.4252358621543691</v>
       </c>
       <c r="T7">
-        <v>0.01526953907193449</v>
+        <v>0.4252358621543691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>3.462619</v>
       </c>
       <c r="I8">
-        <v>0.01628172957288352</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="J8">
-        <v>0.01628172957288353</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.448495</v>
+        <v>0.2807486666666667</v>
       </c>
       <c r="N8">
-        <v>1.345485</v>
+        <v>0.8422460000000001</v>
       </c>
       <c r="O8">
-        <v>0.05033609585745587</v>
+        <v>0.03211396410631209</v>
       </c>
       <c r="P8">
-        <v>0.05033609585745586</v>
+        <v>0.03211396410631208</v>
       </c>
       <c r="Q8">
-        <v>0.5176557694683335</v>
+        <v>0.3240418891415556</v>
       </c>
       <c r="R8">
-        <v>4.658901925215</v>
+        <v>2.916377002274</v>
       </c>
       <c r="S8">
-        <v>0.0008195587005058391</v>
+        <v>0.01428710109318872</v>
       </c>
       <c r="T8">
-        <v>0.0008195587005058391</v>
+        <v>0.01428710109318871</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>3.462619</v>
       </c>
       <c r="I9">
-        <v>0.01628172957288352</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="J9">
-        <v>0.01628172957288353</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>1.834996</v>
       </c>
       <c r="O9">
-        <v>0.06864924882406573</v>
+        <v>0.06996648921957034</v>
       </c>
       <c r="P9">
-        <v>0.06864924882406571</v>
+        <v>0.06996648921957033</v>
       </c>
       <c r="Q9">
         <v>0.7059880016137778</v>
@@ -1004,10 +1004,10 @@
         <v>6.353892014524</v>
       </c>
       <c r="S9">
-        <v>0.00111772850473503</v>
+        <v>0.03112721622613454</v>
       </c>
       <c r="T9">
-        <v>0.00111772850473503</v>
+        <v>0.03112721622613454</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>3.462619</v>
       </c>
       <c r="I10">
-        <v>0.01628172957288352</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="J10">
-        <v>0.01628172957288353</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>23.549542</v>
       </c>
       <c r="O10">
-        <v>0.8810146553184784</v>
+        <v>0.8979195466741177</v>
       </c>
       <c r="P10">
-        <v>0.8810146553184784</v>
+        <v>0.8979195466741176</v>
       </c>
       <c r="Q10">
         <v>9.060343507833112</v>
@@ -1066,10 +1066,10 @@
         <v>81.54309157049801</v>
       </c>
       <c r="S10">
-        <v>0.01434444236764265</v>
+        <v>0.399473179157032</v>
       </c>
       <c r="T10">
-        <v>0.01434444236764266</v>
+        <v>0.3994731791570319</v>
       </c>
     </row>
   </sheetData>
